--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,21 +52,18 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -85,235 +82,244 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>years</t>
+    <t>cooks</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>making</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>used</t>
@@ -680,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -799,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,16 +876,16 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.868421052631579</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4528301886792453</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3953488372093023</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L7">
         <v>23</v>
       </c>
-      <c r="K7">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
       <c r="M7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3636363636363636</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1049,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.282051282051282</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,107 +1155,83 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.145631067961165</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>158</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.6779661016949152</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11">
+        <v>200</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.6590909090909091</v>
+      </c>
+      <c r="L12">
+        <v>29</v>
+      </c>
+      <c r="M12">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>15</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>88</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.6986301369863014</v>
-      </c>
-      <c r="L11">
-        <v>51</v>
-      </c>
-      <c r="M11">
-        <v>51</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>162</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.6813559322033899</v>
-      </c>
-      <c r="L12">
-        <v>201</v>
-      </c>
-      <c r="M12">
-        <v>201</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
         <v>48</v>
@@ -1267,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6753246753246753</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>803</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6468699839486356</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L15">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>806</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6114285714285714</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.59375</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5657894736842105</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1423,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5428571428571428</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.546875</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L22">
         <v>38</v>
       </c>
-      <c r="K22">
-        <v>0.5329341317365269</v>
-      </c>
-      <c r="L22">
-        <v>89</v>
-      </c>
       <c r="M22">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1501,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L23">
         <v>39</v>
       </c>
-      <c r="K23">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="L23">
-        <v>34</v>
-      </c>
       <c r="M23">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5111111111111111</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4939759036144578</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.459016393442623</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.456140350877193</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4285714285714285</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,21 +1743,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3909774436090225</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L33">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,21 +1769,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.3855421686746988</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1813,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1839,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.3909774436090225</v>
+      </c>
+      <c r="L36">
         <v>52</v>
       </c>
-      <c r="K36">
-        <v>0.3813229571984436</v>
-      </c>
-      <c r="L36">
-        <v>98</v>
-      </c>
       <c r="M36">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1865,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3725490196078431</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1891,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3504901960784313</v>
+        <v>0.3852140077821012</v>
       </c>
       <c r="L38">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="M38">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1917,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>265</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3469387755102041</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1943,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3157894736842105</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1969,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>91</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.3095890410958904</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L41">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1995,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>504</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.308641975308642</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2021,47 +2003,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.2949640287769784</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L43">
+        <v>21</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>41</v>
-      </c>
-      <c r="M43">
-        <v>41</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.2941176470588235</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2073,21 +2055,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.2857142857142857</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2099,21 +2081,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.2781456953642384</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2125,21 +2107,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>109</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.2763157894736842</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2151,21 +2133,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.2741935483870968</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2177,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.2702702702702703</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2203,12 +2185,12 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50">
         <v>0.2631578947368421</v>
@@ -2234,16 +2216,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2407407407407407</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2255,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2376237623762376</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2281,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.232508073196986</v>
+        <v>0.25</v>
       </c>
       <c r="L53">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2307,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>713</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.2100313479623825</v>
+        <v>0.25</v>
       </c>
       <c r="L54">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2333,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>252</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2083333333333333</v>
+        <v>0.2465016146393972</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2359,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>57</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.1947019867549669</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="L56">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2385,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>608</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.1815856777493606</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L57">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2411,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>640</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.1801801801801802</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2437,73 +2419,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.1785714285714286</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="N59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>92</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.1675675675675676</v>
+        <v>0.1943734015345268</v>
       </c>
       <c r="L60">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="M60">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>308</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.1623931623931624</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2515,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1585365853658537</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L62">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2541,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>138</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1543624161073825</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L63">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2567,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.15</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2593,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1318181818181818</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L65">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2619,47 +2601,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>382</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.1143552311435523</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L66">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>364</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1129943502824859</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M67">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2671,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>157</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1121718377088305</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L68">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2697,47 +2679,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>372</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1107011070110701</v>
+        <v>0.127027027027027</v>
       </c>
       <c r="L69">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>241</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.1074561403508772</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="L70">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M70">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2749,21 +2731,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>407</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1042944785276074</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2775,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>146</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1030927835051546</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L72">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2801,21 +2783,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>261</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.1025641025641026</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2827,21 +2809,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.1008403361344538</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="L74">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2853,21 +2835,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>214</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L75">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M75">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2879,21 +2861,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>243</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.09852216748768473</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2905,21 +2887,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.06557377049180328</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2931,21 +2913,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>342</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.06063432835820896</v>
+        <v>0.09245742092457421</v>
       </c>
       <c r="L78">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M78">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2957,21 +2939,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1007</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.05514705882352941</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2983,47 +2965,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.054519368723099</v>
+        <v>0.07296538821328344</v>
       </c>
       <c r="L80">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M80">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>659</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K81">
-        <v>0.05166051660516605</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3035,110 +3017,188 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>514</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.04834605597964377</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N82">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O82">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>374</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.04502164502164503</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L83">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1103</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.04423076923076923</v>
+        <v>0.05166051660516605</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N84">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K85">
+        <v>0.04506065857885615</v>
+      </c>
+      <c r="L85">
+        <v>52</v>
+      </c>
+      <c r="M85">
+        <v>55</v>
+      </c>
+      <c r="N85">
+        <v>0.95</v>
+      </c>
+      <c r="O85">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K85">
+      <c r="K86">
+        <v>0.03816793893129771</v>
+      </c>
+      <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>16</v>
+      </c>
+      <c r="N86">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K87">
+        <v>0.03262955854126679</v>
+      </c>
+      <c r="L87">
+        <v>17</v>
+      </c>
+      <c r="M87">
+        <v>18</v>
+      </c>
+      <c r="N87">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88">
         <v>0.0235910878112713</v>
       </c>
-      <c r="L85">
+      <c r="L88">
         <v>18</v>
       </c>
-      <c r="M85">
+      <c r="M88">
         <v>22</v>
       </c>
-      <c r="N85">
+      <c r="N88">
         <v>0.82</v>
       </c>
-      <c r="O85">
+      <c r="O88">
         <v>0.18</v>
       </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
         <v>745</v>
       </c>
     </row>
